--- a/Results/wine-disc_results.xlsx
+++ b/Results/wine-disc_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,22 +459,70 @@
           <t>NCC robust</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>C4.5 acc</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>credal-C4.5 acc</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>SPN acc</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>CSPN low</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CSPN high</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CSPN robust</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>71.79012345679013</v>
+        <v>72.09876543209877</v>
       </c>
       <c r="C2" t="n">
-        <v>63.88888888888889</v>
+        <v>63.95061728395061</v>
       </c>
       <c r="D2" t="n">
-        <v>98.51851851851852</v>
+        <v>99.01234567901234</v>
       </c>
       <c r="E2" t="n">
-        <v>97.77373037245017</v>
+        <v>98.48043454101415</v>
+      </c>
+      <c r="F2" t="n">
+        <v>90.12345679012347</v>
+      </c>
+      <c r="G2" t="n">
+        <v>88.76543209876543</v>
+      </c>
+      <c r="H2" t="n">
+        <v>88.08641975308642</v>
+      </c>
+      <c r="I2" t="n">
+        <v>88.08641975308642</v>
+      </c>
+      <c r="J2" t="n">
+        <v>88.08641975308642</v>
+      </c>
+      <c r="K2" t="n">
+        <v>88.08641975308642</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +530,34 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>73.0246913580247</v>
+        <v>72.71604938271604</v>
       </c>
       <c r="C3" t="n">
-        <v>63.64197530864198</v>
+        <v>63.14814814814815</v>
       </c>
       <c r="D3" t="n">
-        <v>98.4567901234568</v>
+        <v>97.77777777777779</v>
       </c>
       <c r="E3" t="n">
-        <v>97.61658870984871</v>
+        <v>96.58919010136802</v>
+      </c>
+      <c r="F3" t="n">
+        <v>86.35802469135803</v>
+      </c>
+      <c r="G3" t="n">
+        <v>87.71604938271604</v>
+      </c>
+      <c r="H3" t="n">
+        <v>88.39506172839506</v>
+      </c>
+      <c r="I3" t="n">
+        <v>88.33333333333333</v>
+      </c>
+      <c r="J3" t="n">
+        <v>88.33333333333333</v>
+      </c>
+      <c r="K3" t="n">
+        <v>88.33333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +565,34 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>71.04938271604938</v>
+        <v>69.19753086419753</v>
       </c>
       <c r="C4" t="n">
-        <v>61.2962962962963</v>
+        <v>60.8641975308642</v>
       </c>
       <c r="D4" t="n">
-        <v>98.27160493827161</v>
+        <v>98.88888888888889</v>
       </c>
       <c r="E4" t="n">
-        <v>97.34045277341599</v>
+        <v>98.17355444463996</v>
+      </c>
+      <c r="F4" t="n">
+        <v>84.19753086419753</v>
+      </c>
+      <c r="G4" t="n">
+        <v>87.34567901234568</v>
+      </c>
+      <c r="H4" t="n">
+        <v>87.83950617283951</v>
+      </c>
+      <c r="I4" t="n">
+        <v>88.14814814814814</v>
+      </c>
+      <c r="J4" t="n">
+        <v>88.14814814814814</v>
+      </c>
+      <c r="K4" t="n">
+        <v>88.14814814814814</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +600,34 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>66.72839506172839</v>
+        <v>68.27160493827161</v>
       </c>
       <c r="C5" t="n">
-        <v>57.4074074074074</v>
+        <v>59.5679012345679</v>
       </c>
       <c r="D5" t="n">
-        <v>98.64197530864197</v>
+        <v>98.51851851851852</v>
       </c>
       <c r="E5" t="n">
-        <v>97.70800283938247</v>
+        <v>97.45465402528806</v>
+      </c>
+      <c r="F5" t="n">
+        <v>82.90123456790123</v>
+      </c>
+      <c r="G5" t="n">
+        <v>86.35802469135803</v>
+      </c>
+      <c r="H5" t="n">
+        <v>86.54320987654322</v>
+      </c>
+      <c r="I5" t="n">
+        <v>86.35802469135803</v>
+      </c>
+      <c r="J5" t="n">
+        <v>86.48148148148148</v>
+      </c>
+      <c r="K5" t="n">
+        <v>86.4651758676916</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +635,34 @@
         <v>30</v>
       </c>
       <c r="B6" t="n">
-        <v>67.28395061728395</v>
+        <v>69.50617283950618</v>
       </c>
       <c r="C6" t="n">
-        <v>55.67901234567901</v>
+        <v>57.16049382716049</v>
       </c>
       <c r="D6" t="n">
-        <v>98.58024691358024</v>
+        <v>98.76543209876543</v>
       </c>
       <c r="E6" t="n">
-        <v>97.50885195385099</v>
+        <v>97.85453499433001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>81.85185185185186</v>
+      </c>
+      <c r="G6" t="n">
+        <v>85.37037037037038</v>
+      </c>
+      <c r="H6" t="n">
+        <v>87.5925925925926</v>
+      </c>
+      <c r="I6" t="n">
+        <v>87.22222222222223</v>
+      </c>
+      <c r="J6" t="n">
+        <v>87.53086419753087</v>
+      </c>
+      <c r="K6" t="n">
+        <v>87.48427672955975</v>
       </c>
     </row>
   </sheetData>
